--- a/WIP.xlsx
+++ b/WIP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Planing-Stock-EDI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\STOCK_Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11284602-3474-4F62-AC8C-3B2AAB95E7E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51908D3-55D4-46AE-B0F9-294B9387F4E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="96" yWindow="624" windowWidth="22944" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stock_Checked" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>STOCK ID</t>
   </si>
@@ -42,73 +42,16 @@
     <t>PartNo</t>
   </si>
   <si>
-    <t>2532</t>
-  </si>
-  <si>
     <t>BF</t>
   </si>
   <si>
-    <t>2633</t>
-  </si>
-  <si>
-    <t>9910</t>
-  </si>
-  <si>
-    <t>9907</t>
-  </si>
-  <si>
     <t>3000</t>
   </si>
   <si>
     <t>3100</t>
   </si>
   <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>5130</t>
-  </si>
-  <si>
-    <t>5230</t>
-  </si>
-  <si>
-    <t>5330</t>
-  </si>
-  <si>
-    <t>0231</t>
-  </si>
-  <si>
-    <t>4946</t>
-  </si>
-  <si>
-    <t>9708</t>
-  </si>
-  <si>
     <t>493C</t>
-  </si>
-  <si>
-    <t>1771</t>
-  </si>
-  <si>
-    <t>9775</t>
-  </si>
-  <si>
-    <t>2031</t>
-  </si>
-  <si>
-    <t>4900</t>
-  </si>
-  <si>
-    <t>9115</t>
-  </si>
-  <si>
-    <t>9112</t>
-  </si>
-  <si>
-    <t>1732</t>
-  </si>
-  <si>
-    <t>1632</t>
   </si>
   <si>
     <t>FG0</t>
@@ -127,7 +70,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,11 +80,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -278,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -289,14 +227,17 @@
     <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,9 +588,10 @@
     <col min="1" max="1" width="8.5546875" customWidth="1"/>
     <col min="2" max="2" width="14.109375" customWidth="1"/>
     <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" customWidth="1"/>
-    <col min="6" max="7" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -663,16 +605,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -682,20 +624,20 @@
       <c r="B2" s="3">
         <v>44105</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>832</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
+        <v>5000</v>
+      </c>
+      <c r="E2" s="4">
+        <v>4000</v>
+      </c>
+      <c r="F2" s="4">
+        <v>5000</v>
+      </c>
+      <c r="G2" s="5">
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -705,20 +647,20 @@
       <c r="B3" s="3">
         <v>44105</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
+      <c r="C3" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="D3" s="2">
-        <v>224</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E3" s="4">
+        <v>4000</v>
+      </c>
+      <c r="F3" s="4">
+        <v>5000</v>
+      </c>
+      <c r="G3" s="5">
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -728,461 +670,24 @@
       <c r="B4" s="3">
         <v>44105</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
+      <c r="C4" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D4" s="2">
-        <v>695</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>44105</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2">
-        <v>148</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>44105</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2">
-        <v>330</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>44105</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2">
-        <v>185</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3">
-        <v>44105</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2">
-        <v>895</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3">
-        <v>44105</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2">
-        <v>32</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3">
-        <v>44105</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="2">
-        <v>248</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3">
-        <v>44105</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2">
-        <v>381</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3">
-        <v>44105</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="2">
-        <v>622</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3">
-        <v>44105</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1532</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3">
-        <v>44105</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="2">
-        <v>733</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3">
-        <v>44105</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="2">
-        <v>241</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3">
-        <v>44105</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1725</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3">
-        <v>44105</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="2">
-        <v>440</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>18</v>
-      </c>
-      <c r="B18" s="3">
-        <v>44105</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="2">
-        <v>345</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0</v>
-      </c>
-      <c r="F18" s="5">
-        <v>0</v>
-      </c>
-      <c r="G18" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>19</v>
-      </c>
-      <c r="B19" s="3">
-        <v>44105</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="2">
-        <v>819</v>
-      </c>
-      <c r="E19" s="5">
-        <v>0</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0</v>
-      </c>
-      <c r="G19" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>20</v>
-      </c>
-      <c r="B20" s="3">
-        <v>44105</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="2">
-        <v>201</v>
-      </c>
-      <c r="E20" s="5">
-        <v>0</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>21</v>
-      </c>
-      <c r="B21" s="3">
-        <v>44105</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1220</v>
-      </c>
-      <c r="E21" s="5">
-        <v>0</v>
-      </c>
-      <c r="F21" s="5">
-        <v>0</v>
-      </c>
-      <c r="G21" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>22</v>
-      </c>
-      <c r="B22" s="3">
-        <v>44105</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="2">
-        <v>286</v>
-      </c>
-      <c r="E22" s="5">
-        <v>0</v>
-      </c>
-      <c r="F22" s="5">
-        <v>0</v>
-      </c>
-      <c r="G22" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>24</v>
-      </c>
-      <c r="B23" s="3">
-        <v>44105</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="2">
-        <v>3000</v>
-      </c>
-      <c r="E23" s="5">
-        <v>0</v>
-      </c>
-      <c r="F23" s="5">
-        <v>0</v>
-      </c>
-      <c r="G23" s="6">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E4" s="4">
+        <v>4000</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5000</v>
+      </c>
+      <c r="G4" s="5">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>